--- a/biology/Botanique/Purée_instantanée/Purée_instantanée.xlsx
+++ b/biology/Botanique/Purée_instantanée/Purée_instantanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pur%C3%A9e_instantan%C3%A9e</t>
+          <t>Purée_instantanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La purée en flocons, ou purée instantanée, est un aliment industriel fabriqué à partir de pommes de terre qui ont été cuites, écrasées et déshydratées par un processus industriel et conditionnées en paquets sous forme d'aliment prêt-à-servir. Elle peut être reconstituée chez soi en quelques minutes en y ajoutant de l'eau ou du lait chaud, donnant une purée très proche de celle préparée normalement, tout en demandant moins de temps et d'efforts.
 Considéré comme un aliment ultra-transformé, elle se présente sous diverses variantes aromatisées, par exemple à l'oignon, à la ciboulette, à l'ail et au beurre. Elle peut aussi être conditionnée avec de la sauce instantanée.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pur%C3%A9e_instantan%C3%A9e</t>
+          <t>Purée_instantanée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pratique consistant à moudre l'amidon des racines alimentaires et à les déshydrater, pour en assurer la conservation et le rendre transportable, est largement attestée dans le monde, et vraisemblablement date d'avant l'avènement de l'agriculture. Les pommes de terre en particulier ont été traitées par le gel et la dessiccation depuis au moins l'époque de l'empire inca, sous la forme du chuño.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pur%C3%A9e_instantan%C3%A9e</t>
+          <t>Purée_instantanée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La purée instantanée a sensiblement les mêmes qualités nutritionnelles que la purée de pommes de terre, cependant par l'utilisation d'un procédé industriel l'effet "matrice" de la pomme de terre a été perdu lors de l'étape de déshydratation. l'amidon hautement gélatinisé est très facilement digestible par les enzymes digestives[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La purée instantanée a sensiblement les mêmes qualités nutritionnelles que la purée de pommes de terre, cependant par l'utilisation d'un procédé industriel l'effet "matrice" de la pomme de terre a été perdu lors de l'étape de déshydratation. l'amidon hautement gélatinisé est très facilement digestible par les enzymes digestives.
 </t>
         </is>
       </c>
